--- a/biology/Botanique/Brachypodium_retusum/Brachypodium_retusum.xlsx
+++ b/biology/Botanique/Brachypodium_retusum/Brachypodium_retusum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachypodium retusum, le Brachypode rameux ou Baouque, est une plante herbacée méditerranéenne du genre Brachypodium et de la famille des Poacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Brachypodium retusum se rencontre en Algérie, en Turquie, en Albanie, en Grèce, en Crète, en Italie, en Sardaigne, en Sicile, en Yougoslavie, en France, en Corse, en Espagne et au Portugal. 
 </t>
